--- a/2Hand_Use-Case.xlsx
+++ b/2Hand_Use-Case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melissa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author>Samii, Mandana</author>
   </authors>
   <commentList>
-    <comment ref="G16" authorId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Use Case Name:</t>
   </si>
@@ -192,22 +197,7 @@
     <t>Secondary Role (optional):</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Ia</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>2a. &lt;Alternative path&gt;
-F2a. &lt;Failure path&gt;</t>
   </si>
   <si>
     <t>Tip</t>
@@ -251,9 +241,6 @@
     </r>
   </si>
   <si>
-    <t>Mehr Platz für Lieblingskleider</t>
-  </si>
-  <si>
     <t>privater Verkauf von gut erhaltenen Kleidern mit hohem Gewinn und ohne Zetaufwand</t>
   </si>
   <si>
@@ -284,16 +271,52 @@
     <t>Ziel:</t>
   </si>
   <si>
-    <t>Secundäre Role (optional):</t>
-  </si>
-  <si>
     <t>USE CASE DIAGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bestätigung für den Kunden, dass er sich erfolgreich registriert hat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Kunde registriert sich.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Kunde legt einen Artikel an.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Kunde bekommt eine Bestätigung, dass der Artikel angelegt wurde + ein Code (QR/Barcode)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunde geht mit seinem Kleidungsstück + Code in die Filiale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleidungsstück wird aufgenommen und anhand des Codes dem Artikel zugeordnet. Artikel wird im System freigeschaltet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Artikel wird auf der Web-Applikation angezeigt.
+</t>
+  </si>
+  <si>
+    <t>Sekundäre Rolle (optional):</t>
+  </si>
+  <si>
+    <t>Neukunde legt Artikel an</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -609,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,91 +720,142 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFF3FFD1"/>
+      <color rgb="FFE4F0F8"/>
       <color rgb="FF996792"/>
       <color rgb="FFF3E1F0"/>
       <color rgb="FFD7C3D4"/>
@@ -790,7 +864,6 @@
       <color rgb="FFFBF8BB"/>
       <color rgb="FFFFF461"/>
       <color rgb="FFFEE26A"/>
-      <color rgb="FFE4F0F8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -814,10 +887,10 @@
       <xdr:rowOff>690562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>273844</xdr:rowOff>
+      <xdr:rowOff>367393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -826,8 +899,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="6143625"/>
-          <a:ext cx="6703219" cy="571500"/>
+          <a:off x="5339102" y="6106205"/>
+          <a:ext cx="1110684" cy="670152"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -859,13 +932,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>789215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>530678</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
@@ -876,8 +949,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5448301" y="7762875"/>
-          <a:ext cx="1104899" cy="866775"/>
+          <a:off x="5336723" y="7198179"/>
+          <a:ext cx="1085848" cy="820510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -956,202 +1029,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>675082</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="190502" y="7883525"/>
-          <a:ext cx="484580" cy="2978150"/>
-          <a:chOff x="200027" y="7972425"/>
-          <a:chExt cx="484580" cy="2752728"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="466725" y="8601075"/>
-            <a:ext cx="217882" cy="1495425"/>
-            <a:chOff x="1724025" y="4800600"/>
-            <a:chExt cx="342900" cy="1562100"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="33" name="Straight Connector 32"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1724025" y="6362700"/>
-              <a:ext cx="342900" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="996792"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="Straight Connector 37"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="1733550" y="4800600"/>
-              <a:ext cx="0" cy="1562100"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="996792"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="39" name="Straight Connector 38"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1724025" y="4810125"/>
-              <a:ext cx="342900" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="996792"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="none"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="TextBox 39"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="16200000">
-            <a:off x="-1053702" y="9226154"/>
-            <a:ext cx="2752728" cy="245269"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1000">
-                <a:latin typeface="BentonSans Regular" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>&lt;Reason for Iteration&gt;</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1176,7 +1053,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1220,7 +1097,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1264,7 +1141,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1292,10 +1169,10 @@
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>462643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1304,58 +1181,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="10325100"/>
-          <a:ext cx="1057275" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="9067800"/>
-          <a:ext cx="1038225" cy="304800"/>
+          <a:off x="5374821" y="10043432"/>
+          <a:ext cx="7021286" cy="148318"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1406,56 +1233,6 @@
         <a:xfrm flipH="1">
           <a:off x="5448301" y="9420225"/>
           <a:ext cx="1104899" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448302" y="11287125"/>
-          <a:ext cx="1085848" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1588,56 +1365,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>309562</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11299031" y="6965156"/>
-          <a:ext cx="750094" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -1662,7 +1389,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1685,113 +1412,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>57152</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>693964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 48"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5362575" y="10058400"/>
-          <a:ext cx="1057275" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 53"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5362575" y="11715750"/>
-          <a:ext cx="1038225" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>530679</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
@@ -1802,8 +1429,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5324477" y="11020425"/>
-          <a:ext cx="1085848" cy="657225"/>
+          <a:off x="11255831" y="10423071"/>
+          <a:ext cx="1126669" cy="670833"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2326,7 +1953,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2370,7 +1997,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2414,7 +2041,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2686,9 +2313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2726,9 +2353,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2760,9 +2387,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2794,9 +2422,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2969,14 +2598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:I10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2999,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3016,15 +2645,15 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -3051,18 +2680,18 @@
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -3089,18 +2718,18 @@
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="B6" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -3110,18 +2739,18 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="B7" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3131,18 +2760,18 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="B8" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -3152,16 +2781,16 @@
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -3171,18 +2800,18 @@
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -3192,18 +2821,18 @@
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -3230,29 +2859,29 @@
     </row>
     <row r="13" spans="1:15" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A13" s="13"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3267,9 +2896,9 @@
       <c r="I14" s="25"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
@@ -3284,9 +2913,9 @@
       <c r="I15" s="25"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
@@ -3301,9 +2930,9 @@
       <c r="I16" s="25"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
@@ -3318,9 +2947,9 @@
       <c r="I17" s="25"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
@@ -3335,9 +2964,9 @@
       <c r="I18" s="25"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
@@ -3352,9 +2981,9 @@
       <c r="I19" s="25"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
@@ -3369,39 +2998,39 @@
       <c r="I20" s="25"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="B21" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
+      <c r="L21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="53" t="s">
-        <v>50</v>
+      <c r="C22" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
@@ -3411,9 +3040,9 @@
       <c r="I22" s="25"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="78" thickTop="1" thickBot="1">
@@ -3422,78 +3051,66 @@
         <v>1</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D23" s="27"/>
-      <c r="E23" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
       <c r="H23" s="32"/>
       <c r="I23" s="25"/>
       <c r="J23" s="21"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:15" ht="78" thickTop="1" thickBot="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="G24" s="30">
+        <v>2</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="61">
-        <v>2</v>
-      </c>
-      <c r="M24" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="60"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:15" ht="14.25" thickTop="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="30">
-        <v>3</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="29"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="56"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
       <c r="A26" s="31"/>
       <c r="B26" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="3"/>
@@ -3503,12 +3120,12 @@
       <c r="I26" s="7"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="56"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:15" ht="90.75" thickTop="1" thickBot="1">
       <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="33"/>
@@ -3516,26 +3133,26 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="56"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="28" spans="1:15" ht="64.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="31"/>
       <c r="B28" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="3"/>
@@ -3545,97 +3162,85 @@
       <c r="I28" s="25"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="56"/>
+      <c r="L28" s="44">
+        <v>6</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="43"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="29" spans="1:15" ht="21.75" thickTop="1" thickBot="1">
       <c r="A29" s="12"/>
       <c r="B29" s="6"/>
       <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="30">
-        <v>7</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="29"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="30">
-        <v>7</v>
-      </c>
-      <c r="M29" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="29"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
       <c r="A30" s="31"/>
-      <c r="B30" s="26">
-        <v>8</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="27"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="25"/>
+      <c r="G30" s="30">
+        <v>7</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="29"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="25"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="31" spans="1:15" ht="21" thickTop="1">
       <c r="A31" s="12"/>
       <c r="B31" s="6"/>
       <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="30">
-        <v>9</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="29"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="30">
-        <v>9</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="N31" s="29"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" thickTop="1">
+    <row r="32" spans="1:15" ht="65.25" customHeight="1">
       <c r="A32" s="31"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="7"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="25"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="40"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
@@ -3650,9 +3255,9 @@
       <c r="I33" s="7"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
@@ -3674,38 +3279,38 @@
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15">
@@ -3795,20 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B36:N36"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
@@ -3820,6 +3411,20 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3829,14 +3434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3855,7 +3460,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3867,17 +3472,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3894,34 +3499,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -3938,96 +3543,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -4044,20 +3649,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -4080,7 +3685,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -4149,24 +3754,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -4180,10 +3785,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="30">
         <v>1</v>
@@ -4196,7 +3801,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A25" s="37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -4358,28 +3963,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
@@ -4444,15 +4049,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -4469,6 +4065,15 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>

--- a/2Hand_Use-Case.xlsx
+++ b/2Hand_Use-Case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melissa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alandherr/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Example with Tips'!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$J$40</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +37,7 @@
     <author>Samii, Mandana</author>
   </authors>
   <commentList>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Use Case Name:</t>
   </si>
@@ -98,12 +106,6 @@
   </si>
   <si>
     <t>Background:</t>
-  </si>
-  <si>
-    <t>&lt;Prerequisites which should be true before the use case can start&gt;</t>
-  </si>
-  <si>
-    <t>&lt;The action or event(s) that gets the use case started&gt;</t>
   </si>
   <si>
     <t>Annotations</t>
@@ -312,12 +314,27 @@
   <si>
     <t>Neukunde legt Artikel an</t>
   </si>
+  <si>
+    <t>Hintergrund:</t>
+  </si>
+  <si>
+    <t>Vorraussetzung:</t>
+  </si>
+  <si>
+    <t>Auslöser:</t>
+  </si>
+  <si>
+    <t>Lotta benötigt Platz im Kleiderschrenk und Geld für neue Kleidung</t>
+  </si>
+  <si>
+    <t>Lotta hat gut erhaltene Kleidung oder Accessoires, die sie verkaufen möchte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,63 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,10 +777,67 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2313,7 +2330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2358,9 +2375,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2393,9 +2410,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2599,36 +2616,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="225" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="59.25">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="59" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2644,16 +2661,16 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="18"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -2661,7 +2678,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2678,20 +2695,20 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2699,7 +2716,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row r="5" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="22"/>
       <c r="C5" s="3"/>
@@ -2716,20 +2733,20 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="B6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2737,20 +2754,20 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="B7" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2758,20 +2775,20 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="B8" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2779,18 +2796,18 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="B9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2798,20 +2815,20 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="B10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2819,20 +2836,20 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="B11" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2840,7 +2857,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2857,34 +2874,34 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" s="15" customFormat="1" ht="36" customHeight="1">
+    <row r="13" spans="1:15" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="B13" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="61"/>
+      <c r="L13" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2901,7 +2918,7 @@
       <c r="N14" s="40"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2918,7 +2935,7 @@
       <c r="N15" s="40"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2935,7 +2952,7 @@
       <c r="N16" s="40"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2952,7 +2969,7 @@
       <c r="N17" s="40"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2969,7 +2986,7 @@
       <c r="N18" s="40"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="34"/>
@@ -2986,7 +3003,7 @@
       <c r="N19" s="40"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3003,34 +3020,34 @@
       <c r="N20" s="40"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
-      <c r="B21" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="L21" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
@@ -3045,13 +3062,13 @@
       <c r="N22" s="40"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="78" thickTop="1" thickBot="1">
+    <row r="23" spans="1:15" ht="80" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="26">
         <v>1</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="21"/>
@@ -3066,7 +3083,7 @@
       <c r="N23" s="45"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="78" thickTop="1" thickBot="1">
+    <row r="24" spans="1:15" ht="80" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -3077,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="21"/>
@@ -3087,16 +3104,16 @@
       <c r="N24" s="45"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="33"/>
       <c r="D25" s="6"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="40"/>
@@ -3104,13 +3121,13 @@
       <c r="N25" s="40"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="26" spans="1:15" ht="67" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="26">
         <v>3</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="3"/>
@@ -3125,7 +3142,7 @@
       <c r="N26" s="45"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="90.75" thickTop="1" thickBot="1">
+    <row r="27" spans="1:15" ht="80" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="33"/>
@@ -3136,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="3"/>
@@ -3146,13 +3163,13 @@
       <c r="N27" s="40"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="64.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:15" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="26">
         <v>5</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="3"/>
@@ -3166,40 +3183,40 @@
         <v>6</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N28" s="43"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="21.75" thickTop="1" thickBot="1">
+    <row r="29" spans="1:15" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="6"/>
       <c r="C29" s="33"/>
       <c r="D29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="65.25" thickTop="1" thickBot="1">
+    <row r="30" spans="1:15" ht="67" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="30">
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="3"/>
@@ -3209,33 +3226,33 @@
       <c r="N30" s="40"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="21" thickTop="1">
+    <row r="31" spans="1:15" ht="21" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="6"/>
       <c r="C31" s="33"/>
       <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="65.25" customHeight="1">
+    <row r="32" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="40"/>
@@ -3243,7 +3260,7 @@
       <c r="N32" s="40"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3260,7 +3277,7 @@
       <c r="N33" s="40"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3277,43 +3294,43 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
+      <c r="B35" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="89.25" customHeight="1">
+    <row r="36" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3330,7 +3347,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3347,7 +3364,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3364,7 +3381,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3381,7 +3398,7 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3400,6 +3417,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
@@ -3416,15 +3442,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B36:N36"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3435,32 +3452,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="59" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3471,21 +3488,21 @@
       <c r="I1" s="18"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3497,39 +3514,39 @@
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
+    <row r="6" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
@@ -3541,101 +3558,101 @@
       <c r="I6" s="16"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3647,25 +3664,25 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3677,7 +3694,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3685,13 +3702,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3703,7 +3720,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3715,7 +3732,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3727,7 +3744,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3739,7 +3756,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3751,27 +3768,27 @@
       <c r="I21" s="25"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3779,35 +3796,35 @@
       <c r="I23" s="25"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="36" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:10" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="21"/>
@@ -3817,11 +3834,11 @@
       <c r="I25" s="25"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:10" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -3830,34 +3847,34 @@
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="87.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="26">
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
       <c r="H27" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3868,23 +3885,23 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="86.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:10" ht="86.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="26">
         <v>6</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3893,7 +3910,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="33"/>
@@ -3904,18 +3921,18 @@
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="33" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:10" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
@@ -3925,7 +3942,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" thickTop="1">
+    <row r="32" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
       <c r="B32" s="6"/>
       <c r="C32" s="33"/>
@@ -3937,7 +3954,7 @@
       <c r="I32" s="25"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3949,7 +3966,7 @@
       <c r="I33" s="25"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3961,33 +3978,33 @@
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="B35" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="89.25" customHeight="1">
+    <row r="36" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3999,7 +4016,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4011,7 +4028,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -4023,7 +4040,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4035,7 +4052,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4049,6 +4066,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -4065,15 +4091,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
